--- a/Economics/ACF - PACF/First Difference/Ind_prod_parameters.xlsx
+++ b/Economics/ACF - PACF/First Difference/Ind_prod_parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Standard Error</t>
   </si>
@@ -28,7 +28,25 @@
     <t>ar.L1</t>
   </si>
   <si>
+    <t>ar.L2</t>
+  </si>
+  <si>
+    <t>ar.L3</t>
+  </si>
+  <si>
+    <t>ar.L4</t>
+  </si>
+  <si>
     <t>ma.L1</t>
+  </si>
+  <si>
+    <t>ma.L2</t>
+  </si>
+  <si>
+    <t>ma.L3</t>
+  </si>
+  <si>
+    <t>ma.L4</t>
   </si>
   <si>
     <t>sigma2</t>
@@ -389,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.3409107237188707</v>
+        <v>0.2730974009893042</v>
       </c>
       <c r="C2">
-        <v>0.09509376635568068</v>
+        <v>0.08961614014966497</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.6140253247908656</v>
+        <v>0.56504491179822</v>
       </c>
       <c r="C3">
-        <v>-0.01085035465509891</v>
+        <v>-0.2457062720745191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.6360151112369006</v>
+        <v>0.369837261868396</v>
       </c>
       <c r="C4">
-        <v>0.2135540629253014</v>
+        <v>-0.6191654900862933</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +459,76 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.4704775246736173</v>
+        <v>0.4351344140342231</v>
       </c>
       <c r="C5">
-        <v>9.377337749078942</v>
+        <v>0.1800069194674903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.4185077585646659</v>
+      </c>
+      <c r="C6">
+        <v>-1.271182732578158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.7100434485497109</v>
+      </c>
+      <c r="C7">
+        <v>0.4380251324403501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.4425160946037169</v>
+      </c>
+      <c r="C8">
+        <v>0.4682723674886625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.597570654122678</v>
+      </c>
+      <c r="C9">
+        <v>-0.5259013998355405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.6143301108514878</v>
+      </c>
+      <c r="C10">
+        <v>0.8222405621020309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1.263370559679734</v>
+      </c>
+      <c r="C11">
+        <v>3.087120426875464</v>
       </c>
     </row>
   </sheetData>
